--- a/data/axis_options_oga.xlsx
+++ b/data/axis_options_oga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\James_Work\Staff\Atle_H\1000_lakes_2019\python\1000_lakes_2019\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F0EA01-011D-44B4-AC0E-A540B7E7BD5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD5B4B6-6263-4F72-A981-9C62A55FE569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="2512" windowWidth="21690" windowHeight="8041" xr2:uid="{920ABC86-8893-4CB9-98A9-216D10956BA9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{920ABC86-8893-4CB9-98A9-216D10956BA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46CBF90-1285-40B8-8F1F-43E597EF5088}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -625,7 +625,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0.03</v>
@@ -664,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0.1</v>
@@ -681,7 +681,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0.01</v>
@@ -698,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0.02</v>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>5.0000000000000001E-3</v>
@@ -732,7 +732,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0.02</v>
@@ -749,7 +749,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0.1</v>
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0.2</v>
@@ -828,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -859,7 +859,7 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0.02</v>
@@ -904,7 +904,7 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>5.0000000000000001E-3</v>
@@ -921,7 +921,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0.2</v>
@@ -938,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0.03</v>
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -972,7 +972,7 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>0.1</v>
@@ -989,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1006,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0.03</v>
@@ -1062,7 +1062,7 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>5.0000000000000001E-3</v>
@@ -1096,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>10</v>
@@ -1113,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>0.3</v>

--- a/data/axis_options_oga.xlsx
+++ b/data/axis_options_oga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\James_Work\Staff\Atle_H\1000_lakes_2019\python\1000_lakes_2019\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD5B4B6-6263-4F72-A981-9C62A55FE569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D001E8-A43D-4A49-9590-929447480D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{920ABC86-8893-4CB9-98A9-216D10956BA9}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
-  <si>
-    <t>Farge</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>ms/m</t>
   </si>
@@ -187,6 +184,45 @@
   </si>
   <si>
     <t>parameter</t>
+  </si>
+  <si>
+    <t>FARGE</t>
+  </si>
+  <si>
+    <t>Abs254</t>
+  </si>
+  <si>
+    <t>Abs280</t>
+  </si>
+  <si>
+    <t>Abs285</t>
+  </si>
+  <si>
+    <t>Abs365</t>
+  </si>
+  <si>
+    <t>Abs400</t>
+  </si>
+  <si>
+    <t>Abs410</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>sUVa</t>
+  </si>
+  <si>
+    <t>sVISa</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>E2-E3</t>
+  </si>
+  <si>
+    <t>l/mg</t>
   </si>
 </sst>
 </file>
@@ -538,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46CBF90-1285-40B8-8F1F-43E597EF5088}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -554,27 +590,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -585,10 +621,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -602,10 +638,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -619,10 +655,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -636,10 +672,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -647,10 +683,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -658,10 +694,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -675,10 +711,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -692,10 +728,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -709,10 +745,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -726,10 +762,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -738,15 +774,15 @@
         <v>0.02</v>
       </c>
       <c r="E12">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -760,10 +796,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -777,10 +813,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -791,10 +827,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -808,10 +844,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -822,10 +858,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -839,10 +875,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -853,10 +889,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -870,10 +906,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -887,10 +923,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -898,10 +934,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -915,10 +951,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -932,10 +968,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -949,10 +985,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -966,10 +1002,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -983,10 +1019,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1000,10 +1036,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1017,7 +1053,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1025,13 +1061,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1039,10 +1075,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1056,10 +1092,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1073,10 +1109,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
         <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1090,10 +1126,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1107,10 +1143,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1124,10 +1160,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1137,6 +1173,106 @@
       </c>
       <c r="E37">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
